--- a/data/orgs/parsed_page_output/garbage_classifier_input.xlsx
+++ b/data/orgs/parsed_page_output/garbage_classifier_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sanjay.K.Arora/dev/EAGER/data/orgs/parsed_page_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2FC21377-386E-D540-98C4-34CCEF740D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2385AE-0906-0647-BA82-E7F3E72E39DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="garbage_classifier_input" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5629" uniqueCount="4744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5628" uniqueCount="4743">
   <si>
     <t>Our Management</t>
   </si>
@@ -14246,9 +14246,6 @@
   </si>
   <si>
     <t>bridge</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>is_forgeign</t>
@@ -14257,7 +14254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -15126,12 +15123,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5638"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5571" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5583" sqref="B5583:B5638"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15151,7 +15148,7 @@
         <v>4741</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>4743</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16914,8 +16911,8 @@
       <c r="A214" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B214" t="s">
-        <v>4742</v>
+      <c r="B214">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="17" x14ac:dyDescent="0.2">
